--- a/32. Вариант 1/18.xlsx
+++ b/32. Вариант 1/18.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ilyap\Desktop\Вариант\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Square\info-2022\32. Вариант 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEC21340-039F-4A66-83B2-099759F05C35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43CBD6BD-C56F-42E5-81BB-C8C7FC59CE74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{6CF9F464-3206-461F-98B0-C1795E2DDBCA}"/>
+    <workbookView xWindow="29610" yWindow="1920" windowWidth="26925" windowHeight="12420" xr2:uid="{6CF9F464-3206-461F-98B0-C1795E2DDBCA}"/>
   </bookViews>
   <sheets>
-    <sheet name="18" sheetId="5" r:id="rId1"/>
+    <sheet name="18 (2)" sheetId="6" r:id="rId1"/>
+    <sheet name="18" sheetId="5" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -52,12 +53,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="9">
@@ -152,7 +159,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -163,6 +170,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -476,17 +484,235 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{239A69A1-A0AE-4177-A121-45F2207588E7}">
-  <dimension ref="A1:O15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5223CE2F-314A-4932-8251-707F0F8E7EF6}">
+  <dimension ref="A1:X6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="15" width="4.5703125" customWidth="1"/>
+    <col min="21" max="24" width="7.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1" s="2">
+        <v>13</v>
+      </c>
+      <c r="B1" s="3">
+        <v>-7</v>
+      </c>
+      <c r="C1" s="3">
+        <v>11</v>
+      </c>
+      <c r="D1" s="3">
+        <v>-80</v>
+      </c>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="4"/>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
+        <v>-11</v>
+      </c>
+      <c r="B2" s="1">
+        <v>-35</v>
+      </c>
+      <c r="C2" s="1">
+        <v>57</v>
+      </c>
+      <c r="D2" s="1">
+        <v>-34</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="6"/>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <v>-32</v>
+      </c>
+      <c r="B3" s="1">
+        <v>-70</v>
+      </c>
+      <c r="C3" s="1">
+        <v>-72</v>
+      </c>
+      <c r="D3" s="1">
+        <v>-18</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="6"/>
+      <c r="U3">
+        <f>IF(MAX(T3,U2)+A1&lt;=0,-10000,MAX(T3,U2)+A1)</f>
+        <v>13</v>
+      </c>
+      <c r="V3">
+        <f t="shared" ref="V3:X6" si="0">IF(MAX(U3,V2)+B1&lt;=0,-10000,MAX(U3,V2)+B1)</f>
+        <v>6</v>
+      </c>
+      <c r="W3">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="X3">
+        <f t="shared" si="0"/>
+        <v>-10000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>34</v>
+      </c>
+      <c r="B4" s="1">
+        <v>12</v>
+      </c>
+      <c r="C4" s="1">
+        <v>50</v>
+      </c>
+      <c r="D4" s="1">
+        <v>43</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="6"/>
+      <c r="U4">
+        <f t="shared" ref="U4:U6" si="1">IF(MAX(T4,U3)+A2&lt;=0,-10000,MAX(T4,U3)+A2)</f>
+        <v>2</v>
+      </c>
+      <c r="V4">
+        <f t="shared" si="0"/>
+        <v>-10000</v>
+      </c>
+      <c r="W4">
+        <f t="shared" si="0"/>
+        <v>74</v>
+      </c>
+      <c r="X4">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A5" s="5"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="6"/>
+      <c r="U5">
+        <f t="shared" si="1"/>
+        <v>-10000</v>
+      </c>
+      <c r="V5" s="10">
+        <f t="shared" si="0"/>
+        <v>-10000</v>
+      </c>
+      <c r="W5">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="X5">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="6"/>
+      <c r="U6" s="10">
+        <f t="shared" si="1"/>
+        <v>-10000</v>
+      </c>
+      <c r="V6" s="10">
+        <f t="shared" si="0"/>
+        <v>-10000</v>
+      </c>
+      <c r="W6">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="X6">
+        <f t="shared" si="0"/>
+        <v>95</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{239A69A1-A0AE-4177-A121-45F2207588E7}">
+  <dimension ref="A1:AK35"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AK17" sqref="AK3:AK17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="21" max="35" width="7.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A1" s="2">
         <v>16</v>
       </c>
@@ -533,7 +759,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>-3</v>
       </c>
@@ -580,7 +806,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>14</v>
       </c>
@@ -626,8 +852,71 @@
       <c r="O3" s="6">
         <v>87</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="U3">
+        <f>IF(MAX(T3,U2)+A1&lt;=0,-10000,MAX(T3,U2)+A1)</f>
+        <v>16</v>
+      </c>
+      <c r="V3" s="10">
+        <f t="shared" ref="V3:AI17" si="0">IF(MAX(U3,V2)+B1&lt;=0,-10000,MAX(U3,V2)+B1)</f>
+        <v>-10000</v>
+      </c>
+      <c r="W3">
+        <f t="shared" si="0"/>
+        <v>-10000</v>
+      </c>
+      <c r="X3">
+        <f t="shared" si="0"/>
+        <v>-10000</v>
+      </c>
+      <c r="Y3">
+        <f t="shared" si="0"/>
+        <v>-10000</v>
+      </c>
+      <c r="Z3">
+        <f t="shared" si="0"/>
+        <v>-10000</v>
+      </c>
+      <c r="AA3">
+        <f t="shared" si="0"/>
+        <v>-10000</v>
+      </c>
+      <c r="AB3">
+        <f t="shared" si="0"/>
+        <v>-10000</v>
+      </c>
+      <c r="AC3">
+        <f t="shared" si="0"/>
+        <v>-10000</v>
+      </c>
+      <c r="AD3">
+        <f t="shared" si="0"/>
+        <v>-10000</v>
+      </c>
+      <c r="AE3">
+        <f t="shared" si="0"/>
+        <v>-10000</v>
+      </c>
+      <c r="AF3">
+        <f t="shared" si="0"/>
+        <v>-10000</v>
+      </c>
+      <c r="AG3">
+        <f t="shared" si="0"/>
+        <v>-10000</v>
+      </c>
+      <c r="AH3">
+        <f t="shared" si="0"/>
+        <v>-10000</v>
+      </c>
+      <c r="AI3">
+        <f t="shared" si="0"/>
+        <v>-10000</v>
+      </c>
+      <c r="AK3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>22</v>
       </c>
@@ -673,8 +962,71 @@
       <c r="O4" s="6">
         <v>79</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="U4">
+        <f t="shared" ref="U4:U17" si="1">IF(MAX(T4,U3)+A2&lt;=0,-10000,MAX(T4,U3)+A2)</f>
+        <v>13</v>
+      </c>
+      <c r="V4" s="10">
+        <f t="shared" si="0"/>
+        <v>-10000</v>
+      </c>
+      <c r="W4">
+        <f t="shared" si="0"/>
+        <v>-10000</v>
+      </c>
+      <c r="X4">
+        <f t="shared" si="0"/>
+        <v>-10000</v>
+      </c>
+      <c r="Y4">
+        <f t="shared" si="0"/>
+        <v>-10000</v>
+      </c>
+      <c r="Z4">
+        <f t="shared" si="0"/>
+        <v>-10000</v>
+      </c>
+      <c r="AA4">
+        <f t="shared" si="0"/>
+        <v>-10000</v>
+      </c>
+      <c r="AB4">
+        <f t="shared" si="0"/>
+        <v>-10000</v>
+      </c>
+      <c r="AC4">
+        <f t="shared" si="0"/>
+        <v>-10000</v>
+      </c>
+      <c r="AD4">
+        <f t="shared" si="0"/>
+        <v>-10000</v>
+      </c>
+      <c r="AE4">
+        <f t="shared" si="0"/>
+        <v>-10000</v>
+      </c>
+      <c r="AF4">
+        <f t="shared" si="0"/>
+        <v>-10000</v>
+      </c>
+      <c r="AG4">
+        <f t="shared" si="0"/>
+        <v>-10000</v>
+      </c>
+      <c r="AH4">
+        <f t="shared" si="0"/>
+        <v>-10000</v>
+      </c>
+      <c r="AI4">
+        <f t="shared" si="0"/>
+        <v>-10000</v>
+      </c>
+      <c r="AK4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>26</v>
       </c>
@@ -720,8 +1072,71 @@
       <c r="O5" s="6">
         <v>-7</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="U5">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="V5">
+        <f t="shared" si="0"/>
+        <v>72</v>
+      </c>
+      <c r="W5">
+        <f t="shared" si="0"/>
+        <v>79</v>
+      </c>
+      <c r="X5">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="Y5" s="10">
+        <f t="shared" si="0"/>
+        <v>-10000</v>
+      </c>
+      <c r="Z5">
+        <f t="shared" si="0"/>
+        <v>-10000</v>
+      </c>
+      <c r="AA5">
+        <f t="shared" si="0"/>
+        <v>-10000</v>
+      </c>
+      <c r="AB5">
+        <f t="shared" si="0"/>
+        <v>-10000</v>
+      </c>
+      <c r="AC5">
+        <f t="shared" si="0"/>
+        <v>-10000</v>
+      </c>
+      <c r="AD5">
+        <f t="shared" si="0"/>
+        <v>-10000</v>
+      </c>
+      <c r="AE5">
+        <f t="shared" si="0"/>
+        <v>-10000</v>
+      </c>
+      <c r="AF5">
+        <f t="shared" si="0"/>
+        <v>-10000</v>
+      </c>
+      <c r="AG5">
+        <f t="shared" si="0"/>
+        <v>-10000</v>
+      </c>
+      <c r="AH5">
+        <f t="shared" si="0"/>
+        <v>-10000</v>
+      </c>
+      <c r="AI5">
+        <f t="shared" si="0"/>
+        <v>-10000</v>
+      </c>
+      <c r="AK5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>36</v>
       </c>
@@ -767,8 +1182,71 @@
       <c r="O6" s="6">
         <v>60</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="U6">
+        <f t="shared" si="1"/>
+        <v>49</v>
+      </c>
+      <c r="V6">
+        <f t="shared" si="0"/>
+        <v>157</v>
+      </c>
+      <c r="W6">
+        <f t="shared" si="0"/>
+        <v>204</v>
+      </c>
+      <c r="X6">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+      <c r="Y6">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="Z6">
+        <f t="shared" si="0"/>
+        <v>84</v>
+      </c>
+      <c r="AA6" s="10">
+        <f t="shared" si="0"/>
+        <v>-10000</v>
+      </c>
+      <c r="AB6">
+        <f t="shared" si="0"/>
+        <v>-10000</v>
+      </c>
+      <c r="AC6">
+        <f t="shared" si="0"/>
+        <v>-10000</v>
+      </c>
+      <c r="AD6">
+        <f t="shared" si="0"/>
+        <v>-10000</v>
+      </c>
+      <c r="AE6">
+        <f t="shared" si="0"/>
+        <v>-10000</v>
+      </c>
+      <c r="AF6">
+        <f t="shared" si="0"/>
+        <v>-10000</v>
+      </c>
+      <c r="AG6">
+        <f t="shared" si="0"/>
+        <v>-10000</v>
+      </c>
+      <c r="AH6">
+        <f t="shared" si="0"/>
+        <v>-10000</v>
+      </c>
+      <c r="AI6">
+        <f t="shared" si="0"/>
+        <v>-10000</v>
+      </c>
+      <c r="AK6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>-19</v>
       </c>
@@ -814,8 +1292,68 @@
       <c r="O7" s="6">
         <v>46</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="U7">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+      <c r="V7">
+        <f t="shared" si="0"/>
+        <v>129</v>
+      </c>
+      <c r="W7">
+        <f t="shared" si="0"/>
+        <v>265</v>
+      </c>
+      <c r="X7">
+        <f t="shared" si="0"/>
+        <v>168</v>
+      </c>
+      <c r="Y7">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="Z7">
+        <f t="shared" si="0"/>
+        <v>211</v>
+      </c>
+      <c r="AA7">
+        <f t="shared" si="0"/>
+        <v>199</v>
+      </c>
+      <c r="AB7">
+        <f t="shared" si="0"/>
+        <v>191</v>
+      </c>
+      <c r="AC7">
+        <f t="shared" si="0"/>
+        <v>137</v>
+      </c>
+      <c r="AD7">
+        <f t="shared" si="0"/>
+        <v>119</v>
+      </c>
+      <c r="AE7">
+        <f t="shared" si="0"/>
+        <v>87</v>
+      </c>
+      <c r="AF7">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="AG7">
+        <f t="shared" si="0"/>
+        <v>104</v>
+      </c>
+      <c r="AH7">
+        <f t="shared" si="0"/>
+        <v>156</v>
+      </c>
+      <c r="AI7">
+        <f t="shared" si="0"/>
+        <v>149</v>
+      </c>
+    </row>
+    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>63</v>
       </c>
@@ -861,8 +1399,68 @@
       <c r="O8" s="6">
         <v>-6</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="U8">
+        <f t="shared" si="1"/>
+        <v>111</v>
+      </c>
+      <c r="V8">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="W8">
+        <f t="shared" si="0"/>
+        <v>277</v>
+      </c>
+      <c r="X8">
+        <f t="shared" si="0"/>
+        <v>263</v>
+      </c>
+      <c r="Y8">
+        <f t="shared" si="0"/>
+        <v>238</v>
+      </c>
+      <c r="Z8">
+        <f t="shared" si="0"/>
+        <v>223</v>
+      </c>
+      <c r="AA8">
+        <f t="shared" si="0"/>
+        <v>314</v>
+      </c>
+      <c r="AB8">
+        <f t="shared" si="0"/>
+        <v>376</v>
+      </c>
+      <c r="AC8">
+        <f t="shared" si="0"/>
+        <v>446</v>
+      </c>
+      <c r="AD8">
+        <f t="shared" si="0"/>
+        <v>419</v>
+      </c>
+      <c r="AE8">
+        <f t="shared" si="0"/>
+        <v>369</v>
+      </c>
+      <c r="AF8">
+        <f t="shared" si="0"/>
+        <v>272</v>
+      </c>
+      <c r="AG8">
+        <f t="shared" si="0"/>
+        <v>195</v>
+      </c>
+      <c r="AH8">
+        <f t="shared" si="0"/>
+        <v>115</v>
+      </c>
+      <c r="AI8">
+        <f t="shared" si="0"/>
+        <v>209</v>
+      </c>
+    </row>
+    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>40</v>
       </c>
@@ -908,8 +1506,68 @@
       <c r="O9" s="6">
         <v>87</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="U9">
+        <f t="shared" si="1"/>
+        <v>92</v>
+      </c>
+      <c r="V9">
+        <f t="shared" si="0"/>
+        <v>134</v>
+      </c>
+      <c r="W9">
+        <f t="shared" si="0"/>
+        <v>297</v>
+      </c>
+      <c r="X9">
+        <f t="shared" si="0"/>
+        <v>339</v>
+      </c>
+      <c r="Y9">
+        <f t="shared" si="0"/>
+        <v>383</v>
+      </c>
+      <c r="Z9">
+        <f t="shared" si="0"/>
+        <v>335</v>
+      </c>
+      <c r="AA9">
+        <f t="shared" si="0"/>
+        <v>261</v>
+      </c>
+      <c r="AB9">
+        <f t="shared" si="0"/>
+        <v>456</v>
+      </c>
+      <c r="AC9">
+        <f t="shared" si="0"/>
+        <v>424</v>
+      </c>
+      <c r="AD9">
+        <f t="shared" si="0"/>
+        <v>428</v>
+      </c>
+      <c r="AE9">
+        <f t="shared" si="0"/>
+        <v>489</v>
+      </c>
+      <c r="AF9">
+        <f t="shared" si="0"/>
+        <v>476</v>
+      </c>
+      <c r="AG9">
+        <f t="shared" si="0"/>
+        <v>490</v>
+      </c>
+      <c r="AH9">
+        <f t="shared" si="0"/>
+        <v>429</v>
+      </c>
+      <c r="AI9">
+        <f t="shared" si="0"/>
+        <v>475</v>
+      </c>
+    </row>
+    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>-8</v>
       </c>
@@ -955,8 +1613,68 @@
       <c r="O10" s="6">
         <v>15</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="U10">
+        <f t="shared" si="1"/>
+        <v>155</v>
+      </c>
+      <c r="V10">
+        <f t="shared" si="0"/>
+        <v>177</v>
+      </c>
+      <c r="W10">
+        <f t="shared" si="0"/>
+        <v>231</v>
+      </c>
+      <c r="X10">
+        <f t="shared" si="0"/>
+        <v>255</v>
+      </c>
+      <c r="Y10">
+        <f t="shared" si="0"/>
+        <v>384</v>
+      </c>
+      <c r="Z10">
+        <f t="shared" si="0"/>
+        <v>340</v>
+      </c>
+      <c r="AA10">
+        <f t="shared" si="0"/>
+        <v>386</v>
+      </c>
+      <c r="AB10">
+        <f t="shared" si="0"/>
+        <v>361</v>
+      </c>
+      <c r="AC10">
+        <f t="shared" si="0"/>
+        <v>488</v>
+      </c>
+      <c r="AD10">
+        <f t="shared" si="0"/>
+        <v>508</v>
+      </c>
+      <c r="AE10">
+        <f t="shared" si="0"/>
+        <v>483</v>
+      </c>
+      <c r="AF10">
+        <f t="shared" si="0"/>
+        <v>518</v>
+      </c>
+      <c r="AG10">
+        <f t="shared" si="0"/>
+        <v>566</v>
+      </c>
+      <c r="AH10">
+        <f t="shared" si="0"/>
+        <v>508</v>
+      </c>
+      <c r="AI10">
+        <f t="shared" si="0"/>
+        <v>502</v>
+      </c>
+    </row>
+    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>-18</v>
       </c>
@@ -1002,8 +1720,68 @@
       <c r="O11" s="6">
         <v>52</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="U11">
+        <f t="shared" si="1"/>
+        <v>195</v>
+      </c>
+      <c r="V11">
+        <f t="shared" si="0"/>
+        <v>173</v>
+      </c>
+      <c r="W11">
+        <f t="shared" si="0"/>
+        <v>146</v>
+      </c>
+      <c r="X11">
+        <f t="shared" si="0"/>
+        <v>193</v>
+      </c>
+      <c r="Y11">
+        <f t="shared" si="0"/>
+        <v>398</v>
+      </c>
+      <c r="Z11">
+        <f t="shared" si="0"/>
+        <v>422</v>
+      </c>
+      <c r="AA11">
+        <f t="shared" si="0"/>
+        <v>495</v>
+      </c>
+      <c r="AB11">
+        <f t="shared" si="0"/>
+        <v>560</v>
+      </c>
+      <c r="AC11">
+        <f t="shared" si="0"/>
+        <v>537</v>
+      </c>
+      <c r="AD11">
+        <f t="shared" si="0"/>
+        <v>605</v>
+      </c>
+      <c r="AE11">
+        <f t="shared" si="0"/>
+        <v>613</v>
+      </c>
+      <c r="AF11">
+        <f t="shared" si="0"/>
+        <v>583</v>
+      </c>
+      <c r="AG11">
+        <f t="shared" si="0"/>
+        <v>544</v>
+      </c>
+      <c r="AH11">
+        <f t="shared" si="0"/>
+        <v>543</v>
+      </c>
+      <c r="AI11">
+        <f t="shared" si="0"/>
+        <v>630</v>
+      </c>
+    </row>
+    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>-90</v>
       </c>
@@ -1049,8 +1827,68 @@
       <c r="O12" s="6">
         <v>85</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="U12">
+        <f t="shared" si="1"/>
+        <v>187</v>
+      </c>
+      <c r="V12">
+        <f t="shared" si="0"/>
+        <v>146</v>
+      </c>
+      <c r="W12">
+        <f t="shared" si="0"/>
+        <v>76</v>
+      </c>
+      <c r="X12">
+        <f t="shared" si="0"/>
+        <v>225</v>
+      </c>
+      <c r="Y12">
+        <f t="shared" si="0"/>
+        <v>426</v>
+      </c>
+      <c r="Z12">
+        <f t="shared" si="0"/>
+        <v>425</v>
+      </c>
+      <c r="AA12">
+        <f t="shared" si="0"/>
+        <v>527</v>
+      </c>
+      <c r="AB12">
+        <f t="shared" si="0"/>
+        <v>506</v>
+      </c>
+      <c r="AC12">
+        <f t="shared" si="0"/>
+        <v>438</v>
+      </c>
+      <c r="AD12">
+        <f t="shared" si="0"/>
+        <v>694</v>
+      </c>
+      <c r="AE12">
+        <f t="shared" si="0"/>
+        <v>768</v>
+      </c>
+      <c r="AF12">
+        <f t="shared" si="0"/>
+        <v>775</v>
+      </c>
+      <c r="AG12">
+        <f t="shared" si="0"/>
+        <v>801</v>
+      </c>
+      <c r="AH12">
+        <f t="shared" si="0"/>
+        <v>834</v>
+      </c>
+      <c r="AI12">
+        <f t="shared" si="0"/>
+        <v>849</v>
+      </c>
+    </row>
+    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>-36</v>
       </c>
@@ -1096,8 +1934,68 @@
       <c r="O13" s="6">
         <v>-3</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="U13">
+        <f t="shared" si="1"/>
+        <v>169</v>
+      </c>
+      <c r="V13">
+        <f t="shared" si="0"/>
+        <v>109</v>
+      </c>
+      <c r="W13">
+        <f t="shared" si="0"/>
+        <v>86</v>
+      </c>
+      <c r="X13">
+        <f t="shared" si="0"/>
+        <v>213</v>
+      </c>
+      <c r="Y13">
+        <f t="shared" si="0"/>
+        <v>399</v>
+      </c>
+      <c r="Z13">
+        <f t="shared" si="0"/>
+        <v>427</v>
+      </c>
+      <c r="AA13">
+        <f t="shared" si="0"/>
+        <v>514</v>
+      </c>
+      <c r="AB13">
+        <f t="shared" si="0"/>
+        <v>586</v>
+      </c>
+      <c r="AC13">
+        <f t="shared" si="0"/>
+        <v>532</v>
+      </c>
+      <c r="AD13">
+        <f t="shared" si="0"/>
+        <v>678</v>
+      </c>
+      <c r="AE13">
+        <f t="shared" si="0"/>
+        <v>738</v>
+      </c>
+      <c r="AF13">
+        <f t="shared" si="0"/>
+        <v>820</v>
+      </c>
+      <c r="AG13">
+        <f t="shared" si="0"/>
+        <v>869</v>
+      </c>
+      <c r="AH13">
+        <f t="shared" si="0"/>
+        <v>773</v>
+      </c>
+      <c r="AI13">
+        <f t="shared" si="0"/>
+        <v>901</v>
+      </c>
+    </row>
+    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>-48</v>
       </c>
@@ -1143,8 +2041,68 @@
       <c r="O14" s="6">
         <v>-6</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U14">
+        <f t="shared" si="1"/>
+        <v>79</v>
+      </c>
+      <c r="V14">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="W14">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="X14">
+        <f t="shared" si="0"/>
+        <v>160</v>
+      </c>
+      <c r="Y14">
+        <f t="shared" si="0"/>
+        <v>334</v>
+      </c>
+      <c r="Z14">
+        <f t="shared" si="0"/>
+        <v>360</v>
+      </c>
+      <c r="AA14">
+        <f t="shared" si="0"/>
+        <v>595</v>
+      </c>
+      <c r="AB14">
+        <f t="shared" si="0"/>
+        <v>648</v>
+      </c>
+      <c r="AC14">
+        <f t="shared" si="0"/>
+        <v>652</v>
+      </c>
+      <c r="AD14">
+        <f t="shared" si="0"/>
+        <v>676</v>
+      </c>
+      <c r="AE14">
+        <f t="shared" si="0"/>
+        <v>654</v>
+      </c>
+      <c r="AF14">
+        <f t="shared" si="0"/>
+        <v>759</v>
+      </c>
+      <c r="AG14">
+        <f t="shared" si="0"/>
+        <v>876</v>
+      </c>
+      <c r="AH14">
+        <f t="shared" si="0"/>
+        <v>891</v>
+      </c>
+      <c r="AI14">
+        <f t="shared" si="0"/>
+        <v>986</v>
+      </c>
+    </row>
+    <row r="15" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7">
         <v>59</v>
       </c>
@@ -1189,6 +2147,1126 @@
       </c>
       <c r="O15" s="9">
         <v>13</v>
+      </c>
+      <c r="U15">
+        <f t="shared" si="1"/>
+        <v>43</v>
+      </c>
+      <c r="V15" s="10">
+        <f t="shared" si="0"/>
+        <v>-10000</v>
+      </c>
+      <c r="W15" s="10">
+        <f t="shared" si="0"/>
+        <v>-10000</v>
+      </c>
+      <c r="X15">
+        <f t="shared" si="0"/>
+        <v>108</v>
+      </c>
+      <c r="Y15">
+        <f t="shared" si="0"/>
+        <v>401</v>
+      </c>
+      <c r="Z15">
+        <f t="shared" si="0"/>
+        <v>408</v>
+      </c>
+      <c r="AA15">
+        <f t="shared" si="0"/>
+        <v>640</v>
+      </c>
+      <c r="AB15">
+        <f t="shared" si="0"/>
+        <v>657</v>
+      </c>
+      <c r="AC15">
+        <f t="shared" si="0"/>
+        <v>628</v>
+      </c>
+      <c r="AD15">
+        <f t="shared" si="0"/>
+        <v>665</v>
+      </c>
+      <c r="AE15">
+        <f t="shared" si="0"/>
+        <v>756</v>
+      </c>
+      <c r="AF15">
+        <f t="shared" si="0"/>
+        <v>711</v>
+      </c>
+      <c r="AG15">
+        <f t="shared" si="0"/>
+        <v>897</v>
+      </c>
+      <c r="AH15">
+        <f t="shared" si="0"/>
+        <v>938</v>
+      </c>
+      <c r="AI15">
+        <f t="shared" si="0"/>
+        <v>983</v>
+      </c>
+    </row>
+    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="U16" s="10">
+        <f t="shared" si="1"/>
+        <v>-10000</v>
+      </c>
+      <c r="V16">
+        <f t="shared" si="0"/>
+        <v>-10000</v>
+      </c>
+      <c r="W16">
+        <f t="shared" si="0"/>
+        <v>-10000</v>
+      </c>
+      <c r="X16">
+        <f t="shared" si="0"/>
+        <v>99</v>
+      </c>
+      <c r="Y16">
+        <f t="shared" si="0"/>
+        <v>373</v>
+      </c>
+      <c r="Z16">
+        <f t="shared" si="0"/>
+        <v>339</v>
+      </c>
+      <c r="AA16">
+        <f t="shared" si="0"/>
+        <v>617</v>
+      </c>
+      <c r="AB16">
+        <f t="shared" si="0"/>
+        <v>601</v>
+      </c>
+      <c r="AC16">
+        <f t="shared" si="0"/>
+        <v>542</v>
+      </c>
+      <c r="AD16">
+        <f t="shared" si="0"/>
+        <v>630</v>
+      </c>
+      <c r="AE16">
+        <f t="shared" si="0"/>
+        <v>854</v>
+      </c>
+      <c r="AF16">
+        <f t="shared" si="0"/>
+        <v>836</v>
+      </c>
+      <c r="AG16">
+        <f t="shared" si="0"/>
+        <v>845</v>
+      </c>
+      <c r="AH16">
+        <f t="shared" si="0"/>
+        <v>931</v>
+      </c>
+      <c r="AI16">
+        <f t="shared" si="0"/>
+        <v>977</v>
+      </c>
+      <c r="AK16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="21:37" x14ac:dyDescent="0.25">
+      <c r="U17">
+        <f t="shared" si="1"/>
+        <v>-10000</v>
+      </c>
+      <c r="V17">
+        <f t="shared" si="0"/>
+        <v>-10000</v>
+      </c>
+      <c r="W17">
+        <f t="shared" si="0"/>
+        <v>-10000</v>
+      </c>
+      <c r="X17">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="Y17">
+        <f t="shared" si="0"/>
+        <v>436</v>
+      </c>
+      <c r="Z17">
+        <f t="shared" si="0"/>
+        <v>367</v>
+      </c>
+      <c r="AA17">
+        <f t="shared" si="0"/>
+        <v>587</v>
+      </c>
+      <c r="AB17">
+        <f t="shared" si="0"/>
+        <v>632</v>
+      </c>
+      <c r="AC17">
+        <f t="shared" si="0"/>
+        <v>591</v>
+      </c>
+      <c r="AD17">
+        <f t="shared" si="0"/>
+        <v>558</v>
+      </c>
+      <c r="AE17">
+        <f t="shared" si="0"/>
+        <v>844</v>
+      </c>
+      <c r="AF17">
+        <f t="shared" si="0"/>
+        <v>836</v>
+      </c>
+      <c r="AG17">
+        <f t="shared" si="0"/>
+        <v>755</v>
+      </c>
+      <c r="AH17">
+        <f t="shared" si="0"/>
+        <v>1010</v>
+      </c>
+      <c r="AI17">
+        <f t="shared" si="0"/>
+        <v>1023</v>
+      </c>
+      <c r="AK17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="21:37" x14ac:dyDescent="0.25">
+      <c r="U21">
+        <f>MAX(T21,U20)+A1</f>
+        <v>16</v>
+      </c>
+      <c r="V21" s="10">
+        <f t="shared" ref="V21:AI21" si="2">MAX(U21,V20)+B1</f>
+        <v>-34</v>
+      </c>
+      <c r="W21">
+        <f t="shared" si="2"/>
+        <v>47</v>
+      </c>
+      <c r="X21">
+        <f t="shared" si="2"/>
+        <v>-25</v>
+      </c>
+      <c r="Y21">
+        <f t="shared" si="2"/>
+        <v>-98</v>
+      </c>
+      <c r="Z21">
+        <f t="shared" si="2"/>
+        <v>-175</v>
+      </c>
+      <c r="AA21">
+        <f t="shared" si="2"/>
+        <v>-195</v>
+      </c>
+      <c r="AB21">
+        <f t="shared" si="2"/>
+        <v>-126</v>
+      </c>
+      <c r="AC21">
+        <f t="shared" si="2"/>
+        <v>-93</v>
+      </c>
+      <c r="AD21">
+        <f t="shared" si="2"/>
+        <v>-105</v>
+      </c>
+      <c r="AE21">
+        <f t="shared" si="2"/>
+        <v>-142</v>
+      </c>
+      <c r="AF21">
+        <f t="shared" si="2"/>
+        <v>-202</v>
+      </c>
+      <c r="AG21">
+        <f t="shared" si="2"/>
+        <v>-110</v>
+      </c>
+      <c r="AH21">
+        <f t="shared" si="2"/>
+        <v>-181</v>
+      </c>
+      <c r="AI21">
+        <f t="shared" si="2"/>
+        <v>-82</v>
+      </c>
+    </row>
+    <row r="22" spans="21:37" x14ac:dyDescent="0.25">
+      <c r="U22">
+        <f t="shared" ref="U22:AI22" si="3">MAX(T22,U21)+A2</f>
+        <v>13</v>
+      </c>
+      <c r="V22" s="10">
+        <f t="shared" si="3"/>
+        <v>-52</v>
+      </c>
+      <c r="W22">
+        <f t="shared" si="3"/>
+        <v>37</v>
+      </c>
+      <c r="X22">
+        <f t="shared" si="3"/>
+        <v>122</v>
+      </c>
+      <c r="Y22">
+        <f t="shared" si="3"/>
+        <v>90</v>
+      </c>
+      <c r="Z22">
+        <f t="shared" si="3"/>
+        <v>157</v>
+      </c>
+      <c r="AA22">
+        <f t="shared" si="3"/>
+        <v>199</v>
+      </c>
+      <c r="AB22">
+        <f t="shared" si="3"/>
+        <v>132</v>
+      </c>
+      <c r="AC22">
+        <f t="shared" si="3"/>
+        <v>53</v>
+      </c>
+      <c r="AD22">
+        <f t="shared" si="3"/>
+        <v>-22</v>
+      </c>
+      <c r="AE22">
+        <f t="shared" si="3"/>
+        <v>-109</v>
+      </c>
+      <c r="AF22">
+        <f t="shared" si="3"/>
+        <v>-59</v>
+      </c>
+      <c r="AG22">
+        <f t="shared" si="3"/>
+        <v>-50</v>
+      </c>
+      <c r="AH22">
+        <f t="shared" si="3"/>
+        <v>31</v>
+      </c>
+      <c r="AI22">
+        <f t="shared" si="3"/>
+        <v>116</v>
+      </c>
+    </row>
+    <row r="23" spans="21:37" x14ac:dyDescent="0.25">
+      <c r="U23">
+        <f t="shared" ref="U23:AI23" si="4">MAX(T23,U22)+A3</f>
+        <v>27</v>
+      </c>
+      <c r="V23">
+        <f t="shared" si="4"/>
+        <v>72</v>
+      </c>
+      <c r="W23">
+        <f t="shared" si="4"/>
+        <v>79</v>
+      </c>
+      <c r="X23">
+        <f t="shared" si="4"/>
+        <v>77</v>
+      </c>
+      <c r="Y23" s="10">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="Z23">
+        <f t="shared" si="4"/>
+        <v>128</v>
+      </c>
+      <c r="AA23">
+        <f t="shared" si="4"/>
+        <v>160</v>
+      </c>
+      <c r="AB23">
+        <f t="shared" si="4"/>
+        <v>256</v>
+      </c>
+      <c r="AC23">
+        <f t="shared" si="4"/>
+        <v>165</v>
+      </c>
+      <c r="AD23">
+        <f t="shared" si="4"/>
+        <v>175</v>
+      </c>
+      <c r="AE23">
+        <f t="shared" si="4"/>
+        <v>161</v>
+      </c>
+      <c r="AF23">
+        <f t="shared" si="4"/>
+        <v>240</v>
+      </c>
+      <c r="AG23">
+        <f t="shared" si="4"/>
+        <v>210</v>
+      </c>
+      <c r="AH23">
+        <f t="shared" si="4"/>
+        <v>124</v>
+      </c>
+      <c r="AI23">
+        <f t="shared" si="4"/>
+        <v>211</v>
+      </c>
+    </row>
+    <row r="24" spans="21:37" x14ac:dyDescent="0.25">
+      <c r="U24">
+        <f t="shared" ref="U24:AI24" si="5">MAX(T24,U23)+A4</f>
+        <v>49</v>
+      </c>
+      <c r="V24">
+        <f t="shared" si="5"/>
+        <v>157</v>
+      </c>
+      <c r="W24">
+        <f t="shared" si="5"/>
+        <v>204</v>
+      </c>
+      <c r="X24">
+        <f t="shared" si="5"/>
+        <v>150</v>
+      </c>
+      <c r="Y24">
+        <f t="shared" si="5"/>
+        <v>54</v>
+      </c>
+      <c r="Z24">
+        <f t="shared" si="5"/>
+        <v>158</v>
+      </c>
+      <c r="AA24" s="10">
+        <f t="shared" si="5"/>
+        <v>76</v>
+      </c>
+      <c r="AB24">
+        <f t="shared" si="5"/>
+        <v>190</v>
+      </c>
+      <c r="AC24">
+        <f t="shared" si="5"/>
+        <v>135</v>
+      </c>
+      <c r="AD24">
+        <f t="shared" si="5"/>
+        <v>243</v>
+      </c>
+      <c r="AE24">
+        <f t="shared" si="5"/>
+        <v>325</v>
+      </c>
+      <c r="AF24">
+        <f t="shared" si="5"/>
+        <v>401</v>
+      </c>
+      <c r="AG24">
+        <f t="shared" si="5"/>
+        <v>471</v>
+      </c>
+      <c r="AH24">
+        <f t="shared" si="5"/>
+        <v>458</v>
+      </c>
+      <c r="AI24">
+        <f t="shared" si="5"/>
+        <v>537</v>
+      </c>
+    </row>
+    <row r="25" spans="21:37" x14ac:dyDescent="0.25">
+      <c r="U25">
+        <f t="shared" ref="U25:AI25" si="6">MAX(T25,U24)+A5</f>
+        <v>75</v>
+      </c>
+      <c r="V25">
+        <f t="shared" si="6"/>
+        <v>129</v>
+      </c>
+      <c r="W25">
+        <f t="shared" si="6"/>
+        <v>265</v>
+      </c>
+      <c r="X25">
+        <f t="shared" si="6"/>
+        <v>168</v>
+      </c>
+      <c r="Y25">
+        <f t="shared" si="6"/>
+        <v>120</v>
+      </c>
+      <c r="Z25">
+        <f t="shared" si="6"/>
+        <v>249</v>
+      </c>
+      <c r="AA25">
+        <f t="shared" si="6"/>
+        <v>237</v>
+      </c>
+      <c r="AB25">
+        <f t="shared" si="6"/>
+        <v>229</v>
+      </c>
+      <c r="AC25">
+        <f t="shared" si="6"/>
+        <v>175</v>
+      </c>
+      <c r="AD25">
+        <f t="shared" si="6"/>
+        <v>225</v>
+      </c>
+      <c r="AE25">
+        <f t="shared" si="6"/>
+        <v>293</v>
+      </c>
+      <c r="AF25">
+        <f t="shared" si="6"/>
+        <v>366</v>
+      </c>
+      <c r="AG25">
+        <f t="shared" si="6"/>
+        <v>523</v>
+      </c>
+      <c r="AH25">
+        <f t="shared" si="6"/>
+        <v>575</v>
+      </c>
+      <c r="AI25">
+        <f t="shared" si="6"/>
+        <v>568</v>
+      </c>
+    </row>
+    <row r="26" spans="21:37" x14ac:dyDescent="0.25">
+      <c r="U26">
+        <f t="shared" ref="U26:AI26" si="7">MAX(T26,U25)+A6</f>
+        <v>111</v>
+      </c>
+      <c r="V26">
+        <f t="shared" si="7"/>
+        <v>47</v>
+      </c>
+      <c r="W26">
+        <f t="shared" si="7"/>
+        <v>277</v>
+      </c>
+      <c r="X26">
+        <f t="shared" si="7"/>
+        <v>263</v>
+      </c>
+      <c r="Y26">
+        <f t="shared" si="7"/>
+        <v>238</v>
+      </c>
+      <c r="Z26">
+        <f t="shared" si="7"/>
+        <v>234</v>
+      </c>
+      <c r="AA26">
+        <f t="shared" si="7"/>
+        <v>328</v>
+      </c>
+      <c r="AB26">
+        <f t="shared" si="7"/>
+        <v>390</v>
+      </c>
+      <c r="AC26">
+        <f t="shared" si="7"/>
+        <v>460</v>
+      </c>
+      <c r="AD26">
+        <f t="shared" si="7"/>
+        <v>433</v>
+      </c>
+      <c r="AE26">
+        <f t="shared" si="7"/>
+        <v>383</v>
+      </c>
+      <c r="AF26">
+        <f t="shared" si="7"/>
+        <v>286</v>
+      </c>
+      <c r="AG26">
+        <f t="shared" si="7"/>
+        <v>446</v>
+      </c>
+      <c r="AH26">
+        <f t="shared" si="7"/>
+        <v>495</v>
+      </c>
+      <c r="AI26">
+        <f t="shared" si="7"/>
+        <v>628</v>
+      </c>
+    </row>
+    <row r="27" spans="21:37" x14ac:dyDescent="0.25">
+      <c r="U27">
+        <f t="shared" ref="U27:AI27" si="8">MAX(T27,U26)+A7</f>
+        <v>92</v>
+      </c>
+      <c r="V27">
+        <f t="shared" si="8"/>
+        <v>134</v>
+      </c>
+      <c r="W27">
+        <f t="shared" si="8"/>
+        <v>297</v>
+      </c>
+      <c r="X27">
+        <f t="shared" si="8"/>
+        <v>339</v>
+      </c>
+      <c r="Y27">
+        <f t="shared" si="8"/>
+        <v>383</v>
+      </c>
+      <c r="Z27">
+        <f t="shared" si="8"/>
+        <v>335</v>
+      </c>
+      <c r="AA27">
+        <f t="shared" si="8"/>
+        <v>261</v>
+      </c>
+      <c r="AB27">
+        <f t="shared" si="8"/>
+        <v>470</v>
+      </c>
+      <c r="AC27">
+        <f t="shared" si="8"/>
+        <v>438</v>
+      </c>
+      <c r="AD27">
+        <f t="shared" si="8"/>
+        <v>442</v>
+      </c>
+      <c r="AE27">
+        <f t="shared" si="8"/>
+        <v>503</v>
+      </c>
+      <c r="AF27">
+        <f t="shared" si="8"/>
+        <v>490</v>
+      </c>
+      <c r="AG27">
+        <f t="shared" si="8"/>
+        <v>504</v>
+      </c>
+      <c r="AH27">
+        <f t="shared" si="8"/>
+        <v>443</v>
+      </c>
+      <c r="AI27">
+        <f t="shared" si="8"/>
+        <v>674</v>
+      </c>
+    </row>
+    <row r="28" spans="21:37" x14ac:dyDescent="0.25">
+      <c r="U28">
+        <f t="shared" ref="U28:AI28" si="9">MAX(T28,U27)+A8</f>
+        <v>155</v>
+      </c>
+      <c r="V28">
+        <f t="shared" si="9"/>
+        <v>177</v>
+      </c>
+      <c r="W28">
+        <f t="shared" si="9"/>
+        <v>231</v>
+      </c>
+      <c r="X28">
+        <f t="shared" si="9"/>
+        <v>255</v>
+      </c>
+      <c r="Y28">
+        <f t="shared" si="9"/>
+        <v>384</v>
+      </c>
+      <c r="Z28">
+        <f t="shared" si="9"/>
+        <v>340</v>
+      </c>
+      <c r="AA28">
+        <f t="shared" si="9"/>
+        <v>386</v>
+      </c>
+      <c r="AB28">
+        <f t="shared" si="9"/>
+        <v>375</v>
+      </c>
+      <c r="AC28">
+        <f t="shared" si="9"/>
+        <v>502</v>
+      </c>
+      <c r="AD28">
+        <f t="shared" si="9"/>
+        <v>522</v>
+      </c>
+      <c r="AE28">
+        <f t="shared" si="9"/>
+        <v>497</v>
+      </c>
+      <c r="AF28">
+        <f t="shared" si="9"/>
+        <v>532</v>
+      </c>
+      <c r="AG28">
+        <f t="shared" si="9"/>
+        <v>580</v>
+      </c>
+      <c r="AH28">
+        <f t="shared" si="9"/>
+        <v>522</v>
+      </c>
+      <c r="AI28">
+        <f t="shared" si="9"/>
+        <v>668</v>
+      </c>
+    </row>
+    <row r="29" spans="21:37" x14ac:dyDescent="0.25">
+      <c r="U29">
+        <f t="shared" ref="U29:AI29" si="10">MAX(T29,U28)+A9</f>
+        <v>195</v>
+      </c>
+      <c r="V29">
+        <f t="shared" si="10"/>
+        <v>173</v>
+      </c>
+      <c r="W29">
+        <f t="shared" si="10"/>
+        <v>146</v>
+      </c>
+      <c r="X29">
+        <f t="shared" si="10"/>
+        <v>193</v>
+      </c>
+      <c r="Y29">
+        <f t="shared" si="10"/>
+        <v>398</v>
+      </c>
+      <c r="Z29">
+        <f t="shared" si="10"/>
+        <v>422</v>
+      </c>
+      <c r="AA29">
+        <f t="shared" si="10"/>
+        <v>495</v>
+      </c>
+      <c r="AB29">
+        <f t="shared" si="10"/>
+        <v>560</v>
+      </c>
+      <c r="AC29">
+        <f t="shared" si="10"/>
+        <v>537</v>
+      </c>
+      <c r="AD29">
+        <f t="shared" si="10"/>
+        <v>605</v>
+      </c>
+      <c r="AE29">
+        <f t="shared" si="10"/>
+        <v>613</v>
+      </c>
+      <c r="AF29">
+        <f t="shared" si="10"/>
+        <v>583</v>
+      </c>
+      <c r="AG29">
+        <f t="shared" si="10"/>
+        <v>544</v>
+      </c>
+      <c r="AH29">
+        <f t="shared" si="10"/>
+        <v>543</v>
+      </c>
+      <c r="AI29">
+        <f t="shared" si="10"/>
+        <v>755</v>
+      </c>
+    </row>
+    <row r="30" spans="21:37" x14ac:dyDescent="0.25">
+      <c r="U30">
+        <f t="shared" ref="U30:AI30" si="11">MAX(T30,U29)+A10</f>
+        <v>187</v>
+      </c>
+      <c r="V30">
+        <f t="shared" si="11"/>
+        <v>146</v>
+      </c>
+      <c r="W30">
+        <f t="shared" si="11"/>
+        <v>76</v>
+      </c>
+      <c r="X30">
+        <f t="shared" si="11"/>
+        <v>225</v>
+      </c>
+      <c r="Y30">
+        <f t="shared" si="11"/>
+        <v>426</v>
+      </c>
+      <c r="Z30">
+        <f t="shared" si="11"/>
+        <v>425</v>
+      </c>
+      <c r="AA30">
+        <f t="shared" si="11"/>
+        <v>527</v>
+      </c>
+      <c r="AB30">
+        <f t="shared" si="11"/>
+        <v>506</v>
+      </c>
+      <c r="AC30">
+        <f t="shared" si="11"/>
+        <v>438</v>
+      </c>
+      <c r="AD30">
+        <f t="shared" si="11"/>
+        <v>694</v>
+      </c>
+      <c r="AE30">
+        <f t="shared" si="11"/>
+        <v>768</v>
+      </c>
+      <c r="AF30">
+        <f t="shared" si="11"/>
+        <v>775</v>
+      </c>
+      <c r="AG30">
+        <f t="shared" si="11"/>
+        <v>801</v>
+      </c>
+      <c r="AH30">
+        <f t="shared" si="11"/>
+        <v>834</v>
+      </c>
+      <c r="AI30">
+        <f t="shared" si="11"/>
+        <v>849</v>
+      </c>
+    </row>
+    <row r="31" spans="21:37" x14ac:dyDescent="0.25">
+      <c r="U31">
+        <f t="shared" ref="U31:AI31" si="12">MAX(T31,U30)+A11</f>
+        <v>169</v>
+      </c>
+      <c r="V31">
+        <f t="shared" si="12"/>
+        <v>109</v>
+      </c>
+      <c r="W31">
+        <f t="shared" si="12"/>
+        <v>86</v>
+      </c>
+      <c r="X31">
+        <f t="shared" si="12"/>
+        <v>213</v>
+      </c>
+      <c r="Y31">
+        <f t="shared" si="12"/>
+        <v>399</v>
+      </c>
+      <c r="Z31">
+        <f t="shared" si="12"/>
+        <v>427</v>
+      </c>
+      <c r="AA31">
+        <f t="shared" si="12"/>
+        <v>514</v>
+      </c>
+      <c r="AB31">
+        <f t="shared" si="12"/>
+        <v>586</v>
+      </c>
+      <c r="AC31">
+        <f t="shared" si="12"/>
+        <v>532</v>
+      </c>
+      <c r="AD31">
+        <f t="shared" si="12"/>
+        <v>678</v>
+      </c>
+      <c r="AE31">
+        <f t="shared" si="12"/>
+        <v>738</v>
+      </c>
+      <c r="AF31">
+        <f t="shared" si="12"/>
+        <v>820</v>
+      </c>
+      <c r="AG31">
+        <f t="shared" si="12"/>
+        <v>869</v>
+      </c>
+      <c r="AH31">
+        <f t="shared" si="12"/>
+        <v>773</v>
+      </c>
+      <c r="AI31">
+        <f t="shared" si="12"/>
+        <v>901</v>
+      </c>
+    </row>
+    <row r="32" spans="21:37" x14ac:dyDescent="0.25">
+      <c r="U32">
+        <f t="shared" ref="U32:AI32" si="13">MAX(T32,U31)+A12</f>
+        <v>79</v>
+      </c>
+      <c r="V32">
+        <f t="shared" si="13"/>
+        <v>31</v>
+      </c>
+      <c r="W32">
+        <f t="shared" si="13"/>
+        <v>6</v>
+      </c>
+      <c r="X32">
+        <f t="shared" si="13"/>
+        <v>160</v>
+      </c>
+      <c r="Y32">
+        <f t="shared" si="13"/>
+        <v>334</v>
+      </c>
+      <c r="Z32">
+        <f t="shared" si="13"/>
+        <v>360</v>
+      </c>
+      <c r="AA32">
+        <f t="shared" si="13"/>
+        <v>595</v>
+      </c>
+      <c r="AB32">
+        <f t="shared" si="13"/>
+        <v>648</v>
+      </c>
+      <c r="AC32">
+        <f t="shared" si="13"/>
+        <v>652</v>
+      </c>
+      <c r="AD32">
+        <f t="shared" si="13"/>
+        <v>676</v>
+      </c>
+      <c r="AE32">
+        <f t="shared" si="13"/>
+        <v>654</v>
+      </c>
+      <c r="AF32">
+        <f t="shared" si="13"/>
+        <v>759</v>
+      </c>
+      <c r="AG32">
+        <f t="shared" si="13"/>
+        <v>876</v>
+      </c>
+      <c r="AH32">
+        <f t="shared" si="13"/>
+        <v>891</v>
+      </c>
+      <c r="AI32">
+        <f t="shared" si="13"/>
+        <v>986</v>
+      </c>
+    </row>
+    <row r="33" spans="21:35" x14ac:dyDescent="0.25">
+      <c r="U33">
+        <f t="shared" ref="U33:AI33" si="14">MAX(T33,U32)+A13</f>
+        <v>43</v>
+      </c>
+      <c r="V33" s="10">
+        <f t="shared" si="14"/>
+        <v>-30</v>
+      </c>
+      <c r="W33" s="10">
+        <f t="shared" si="14"/>
+        <v>-67</v>
+      </c>
+      <c r="X33">
+        <f t="shared" si="14"/>
+        <v>108</v>
+      </c>
+      <c r="Y33">
+        <f t="shared" si="14"/>
+        <v>401</v>
+      </c>
+      <c r="Z33">
+        <f t="shared" si="14"/>
+        <v>408</v>
+      </c>
+      <c r="AA33">
+        <f t="shared" si="14"/>
+        <v>640</v>
+      </c>
+      <c r="AB33">
+        <f t="shared" si="14"/>
+        <v>657</v>
+      </c>
+      <c r="AC33">
+        <f t="shared" si="14"/>
+        <v>628</v>
+      </c>
+      <c r="AD33">
+        <f t="shared" si="14"/>
+        <v>665</v>
+      </c>
+      <c r="AE33">
+        <f t="shared" si="14"/>
+        <v>756</v>
+      </c>
+      <c r="AF33">
+        <f t="shared" si="14"/>
+        <v>711</v>
+      </c>
+      <c r="AG33">
+        <f t="shared" si="14"/>
+        <v>897</v>
+      </c>
+      <c r="AH33">
+        <f t="shared" si="14"/>
+        <v>938</v>
+      </c>
+      <c r="AI33">
+        <f t="shared" si="14"/>
+        <v>983</v>
+      </c>
+    </row>
+    <row r="34" spans="21:35" x14ac:dyDescent="0.25">
+      <c r="U34" s="10">
+        <f t="shared" ref="U34:AI34" si="15">MAX(T34,U33)+A14</f>
+        <v>-5</v>
+      </c>
+      <c r="V34">
+        <f t="shared" si="15"/>
+        <v>-101</v>
+      </c>
+      <c r="W34">
+        <f t="shared" si="15"/>
+        <v>-58</v>
+      </c>
+      <c r="X34">
+        <f t="shared" si="15"/>
+        <v>99</v>
+      </c>
+      <c r="Y34">
+        <f t="shared" si="15"/>
+        <v>373</v>
+      </c>
+      <c r="Z34">
+        <f t="shared" si="15"/>
+        <v>339</v>
+      </c>
+      <c r="AA34">
+        <f t="shared" si="15"/>
+        <v>617</v>
+      </c>
+      <c r="AB34">
+        <f t="shared" si="15"/>
+        <v>601</v>
+      </c>
+      <c r="AC34">
+        <f t="shared" si="15"/>
+        <v>542</v>
+      </c>
+      <c r="AD34">
+        <f t="shared" si="15"/>
+        <v>630</v>
+      </c>
+      <c r="AE34">
+        <f t="shared" si="15"/>
+        <v>854</v>
+      </c>
+      <c r="AF34">
+        <f t="shared" si="15"/>
+        <v>836</v>
+      </c>
+      <c r="AG34">
+        <f t="shared" si="15"/>
+        <v>845</v>
+      </c>
+      <c r="AH34">
+        <f t="shared" si="15"/>
+        <v>931</v>
+      </c>
+      <c r="AI34">
+        <f t="shared" si="15"/>
+        <v>977</v>
+      </c>
+    </row>
+    <row r="35" spans="21:35" x14ac:dyDescent="0.25">
+      <c r="U35">
+        <f t="shared" ref="U35:AI35" si="16">MAX(T35,U34)+A15</f>
+        <v>54</v>
+      </c>
+      <c r="V35">
+        <f t="shared" si="16"/>
+        <v>49</v>
+      </c>
+      <c r="W35">
+        <f t="shared" si="16"/>
+        <v>31</v>
+      </c>
+      <c r="X35">
+        <f t="shared" si="16"/>
+        <v>62</v>
+      </c>
+      <c r="Y35">
+        <f t="shared" si="16"/>
+        <v>436</v>
+      </c>
+      <c r="Z35">
+        <f t="shared" si="16"/>
+        <v>367</v>
+      </c>
+      <c r="AA35">
+        <f t="shared" si="16"/>
+        <v>587</v>
+      </c>
+      <c r="AB35">
+        <f t="shared" si="16"/>
+        <v>632</v>
+      </c>
+      <c r="AC35">
+        <f t="shared" si="16"/>
+        <v>591</v>
+      </c>
+      <c r="AD35">
+        <f t="shared" si="16"/>
+        <v>558</v>
+      </c>
+      <c r="AE35">
+        <f t="shared" si="16"/>
+        <v>844</v>
+      </c>
+      <c r="AF35">
+        <f t="shared" si="16"/>
+        <v>836</v>
+      </c>
+      <c r="AG35">
+        <f t="shared" si="16"/>
+        <v>755</v>
+      </c>
+      <c r="AH35">
+        <f t="shared" si="16"/>
+        <v>1010</v>
+      </c>
+      <c r="AI35">
+        <f t="shared" si="16"/>
+        <v>1023</v>
       </c>
     </row>
   </sheetData>
